--- a/data/trans_orig/IP16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6B549F-C796-47A5-951B-5E363AD415B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4E24BD-CAD7-4BD6-A043-57F2428224BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{12FAAB96-2D37-4422-9182-D6EEE8D230D2}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{833FCA66-EAFE-4E6E-AC52-1C5CF5A3EC16}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,87 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>98,56%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>96,99%</t>
   </si>
   <si>
@@ -97,15 +163,9 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>8,01%</t>
   </si>
   <si>
@@ -124,43 +184,37 @@
     <t>5,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -196,60 +250,6 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
     <t>97,77%</t>
   </si>
   <si>
@@ -307,6 +307,36 @@
     <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>97,38%</t>
   </si>
   <si>
@@ -337,22 +367,28 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>95,88%</t>
@@ -397,42 +433,6 @@
     <t>8,18%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
     <t>98,61%</t>
   </si>
   <si>
@@ -484,6 +484,36 @@
     <t>Menores según si ha consumido tranquilizantes, relajantes en 2015 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
     <t>97,45%</t>
   </si>
   <si>
@@ -514,16 +544,40 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>98,27%</t>
@@ -554,60 +608,6 @@
   </si>
   <si>
     <t>4,17%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
   </si>
   <si>
     <t>98,74%</t>
@@ -1035,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F466D088-80AC-4EFC-8568-9A0750AF676A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B35F8B9-F155-41C5-B37C-000B0C52CE7A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1153,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>40713</v>
+        <v>4787</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1168,85 +1168,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>40395</v>
+        <v>9694</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14481</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>126</v>
-      </c>
-      <c r="N4" s="7">
-        <v>81107</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>593</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1252</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1845</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1255,54 +1255,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1314,13 +1314,13 @@
         <v>23334</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -1329,13 +1329,13 @@
         <v>23124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -1344,19 +1344,19 @@
         <v>46458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1365,13 +1365,13 @@
         <v>553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1395,13 +1395,13 @@
         <v>553</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,13 +1416,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1431,13 +1431,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1446,117 +1446,117 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>38117</v>
+        <v>40713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>24886</v>
+        <v>40395</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="N10" s="7">
-        <v>63003</v>
+        <v>81107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1252</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1845</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>791</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1491</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,123 +1565,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>4787</v>
+        <v>33756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25164</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>94</v>
+      </c>
+      <c r="N13" s="7">
+        <v>58919</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9694</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>14481</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1690,25 +1690,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1367</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>58</v>
@@ -1720,49 +1720,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>33756</v>
+        <v>38117</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>60</v>
@@ -1785,85 +1785,85 @@
         <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>25164</v>
+        <v>24886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N16" s="7">
-        <v>58919</v>
+        <v>63003</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1367</v>
+        <v>700</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1367</v>
+        <v>1491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>69</v>
@@ -1875,49 +1875,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -2036,13 +2036,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2051,13 +2051,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2066,13 +2066,13 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2093,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861F6F6-9CEF-4A7B-9DA7-E6D8C4AA920C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63555A29-37B7-49EF-9A33-B25B99829464}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2211,46 +2211,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>50963</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>50406</v>
+        <v>7830</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>101369</v>
+        <v>10482</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2259,7 +2259,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2268,43 +2268,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,54 +2313,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>50963</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>51737</v>
+        <v>7830</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>102700</v>
+        <v>10482</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2372,13 +2372,13 @@
         <v>36695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -2387,13 +2387,13 @@
         <v>33211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -2402,19 +2402,19 @@
         <v>69906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2438,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2474,13 @@
         <v>36695</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2489,13 +2489,13 @@
         <v>33211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -2504,117 +2504,117 @@
         <v>69906</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>47881</v>
+        <v>50963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>49167</v>
+        <v>50406</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="N10" s="7">
-        <v>97048</v>
+        <v>101369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1617</v>
+        <v>1331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>3677</v>
+        <v>1331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,123 +2623,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>49941</v>
+        <v>50963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>50784</v>
+        <v>51737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="N12" s="7">
-        <v>100725</v>
+        <v>102700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>2652</v>
+        <v>50621</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="I13" s="7">
-        <v>7830</v>
+        <v>43429</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="N13" s="7">
-        <v>10482</v>
+        <v>94050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2748,28 +2748,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,49 +2778,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>51228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="I15" s="7">
-        <v>7830</v>
+        <v>43429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10482</v>
+        <v>94657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,97 +2831,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>50621</v>
+        <v>47881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>66</v>
+      </c>
+      <c r="I16" s="7">
+        <v>49167</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>130</v>
+      </c>
+      <c r="N16" s="7">
+        <v>97048</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>69</v>
-      </c>
-      <c r="I16" s="7">
-        <v>43429</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="7">
-        <v>146</v>
-      </c>
-      <c r="N16" s="7">
-        <v>94050</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>607</v>
+        <v>2060</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1617</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3677</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>607</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>130</v>
@@ -2933,49 +2933,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>51228</v>
+        <v>49941</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="7">
-        <v>43429</v>
+        <v>50784</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N18" s="7">
-        <v>94657</v>
+        <v>100725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,7 +3025,7 @@
         <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>138</v>
@@ -3034,7 +3034,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -3079,7 +3079,7 @@
         <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3094,13 @@
         <v>191478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -3109,13 +3109,13 @@
         <v>186992</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>540</v>
@@ -3124,13 +3124,13 @@
         <v>378470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A01E5C-AE2A-427C-AB25-B03AE6C511C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F818D1-ECA3-4AB3-9502-E89F4A6BBD6A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3269,46 +3269,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>49761</v>
+        <v>4512</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>52801</v>
+        <v>7682</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12194</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>159</v>
-      </c>
-      <c r="N4" s="7">
-        <v>102562</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3317,7 +3317,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3326,43 +3326,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>617</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>617</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,54 +3371,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>49761</v>
+        <v>4512</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>53418</v>
+        <v>7682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>103179</v>
+        <v>12194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3430,13 +3430,13 @@
         <v>24207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3445,13 +3445,13 @@
         <v>24382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -3460,19 +3460,19 @@
         <v>48589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3496,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3532,13 @@
         <v>24207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -3547,13 +3547,13 @@
         <v>24382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -3562,117 +3562,117 @@
         <v>48589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>36624</v>
+        <v>49761</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>85</v>
+      </c>
+      <c r="I10" s="7">
+        <v>52801</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>159</v>
+      </c>
+      <c r="N10" s="7">
+        <v>102562</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>59</v>
-      </c>
-      <c r="I10" s="7">
-        <v>43106</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="7">
-        <v>110</v>
-      </c>
-      <c r="N10" s="7">
-        <v>79730</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>646</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,153 +3681,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>37270</v>
+        <v>49761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I12" s="7">
-        <v>43106</v>
+        <v>53418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="N12" s="7">
-        <v>80376</v>
+        <v>103179</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>4512</v>
+        <v>31160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>56</v>
+      </c>
+      <c r="I13" s="7">
+        <v>33424</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>105</v>
+      </c>
+      <c r="N13" s="7">
+        <v>64585</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7682</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="7">
-        <v>13</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12194</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>175</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,49 +3836,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D15" s="7">
-        <v>4512</v>
+        <v>32374</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I15" s="7">
-        <v>7682</v>
+        <v>33948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="N15" s="7">
-        <v>12194</v>
+        <v>66323</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,97 +3889,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>31160</v>
+        <v>36624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>33424</v>
+        <v>43106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N16" s="7">
-        <v>64585</v>
+        <v>79730</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1214</v>
+        <v>646</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1738</v>
+        <v>646</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>189</v>
@@ -3991,49 +3991,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>32374</v>
+        <v>37270</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I18" s="7">
-        <v>33948</v>
+        <v>43106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N18" s="7">
-        <v>66323</v>
+        <v>80376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,7 +4071,7 @@
         <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>455</v>
@@ -4092,7 +4092,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -4119,7 +4119,7 @@
         <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>199</v>
@@ -4152,13 +4152,13 @@
         <v>148125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>245</v>
@@ -4167,13 +4167,13 @@
         <v>162536</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>460</v>
@@ -4182,13 +4182,13 @@
         <v>310661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4E24BD-CAD7-4BD6-A043-57F2428224BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7C88B6-28E2-49DC-9952-9C3D47565F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{833FCA66-EAFE-4E6E-AC52-1C5CF5A3EC16}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2AA4373-CAB0-43C3-AD1B-0452DB5C87E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="209">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,27 +106,24 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
     <t>97,69%</t>
   </si>
   <si>
@@ -121,76 +136,76 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>93,11%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>91,99%</t>
+    <t>92,78%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>90,71%</t>
+    <t>90,75%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>94,09%</t>
+    <t>94,66%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>87,34%</t>
+    <t>85,95%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -199,70 +214,82 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>92,91%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>91,05%</t>
+    <t>90,0%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>95,47%</t>
+    <t>95,46%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -271,379 +298,373 @@
     <t>98,05%</t>
   </si>
   <si>
-    <t>96,36%</t>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2015 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
 </sst>
 </file>
@@ -654,7 +675,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -750,39 +771,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -834,7 +855,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -945,13 +966,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -960,6 +974,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1024,19 +1045,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B35F8B9-F155-41C5-B37C-000B0C52CE7A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F580E9-ADE5-4D0D-9B9C-7AE1EE66BEED}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1153,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4787</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1168,34 +1209,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>14481</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,10 +1245,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1219,34 +1260,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14481</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1261,13 +1302,13 @@
         <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1276,13 +1317,13 @@
         <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -1291,13 +1332,13 @@
         <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1308,49 +1349,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>23334</v>
+        <v>553</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>23124</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>46458</v>
+        <v>553</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1359,49 +1400,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>553</v>
+        <v>23334</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>23124</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="N8" s="7">
-        <v>553</v>
+        <v>46458</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,13 +1457,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1431,13 +1472,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1446,13 +1487,13 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,40 +1504,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>40713</v>
+        <v>593</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>40395</v>
+        <v>1252</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>81107</v>
+        <v>1845</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>38</v>
@@ -1514,40 +1555,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>593</v>
+        <v>40713</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>1252</v>
+        <v>40395</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7">
-        <v>1845</v>
+        <v>81107</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>45</v>
@@ -1571,13 +1612,13 @@
         <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -1586,13 +1627,13 @@
         <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>129</v>
@@ -1601,13 +1642,13 @@
         <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,49 +1659,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>33756</v>
+        <v>1367</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>25164</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>58919</v>
+        <v>1367</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,49 +1710,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>1367</v>
+        <v>33756</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>25164</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="N14" s="7">
-        <v>1367</v>
+        <v>58919</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1726,13 +1767,13 @@
         <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -1741,13 +1782,13 @@
         <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1756,13 +1797,13 @@
         <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,49 +1814,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>38117</v>
+        <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>24886</v>
+        <v>791</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>63003</v>
+        <v>1491</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,49 +1865,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>38117</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>791</v>
+        <v>24886</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="N17" s="7">
-        <v>1491</v>
+        <v>63003</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1922,13 @@
         <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -1896,13 +1937,13 @@
         <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -1911,13 +1952,13 @@
         <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,10 +1969,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>140706</v>
+        <v>3213</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>70</v>
@@ -1943,10 +1984,10 @@
         <v>72</v>
       </c>
       <c r="H19" s="7">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>123262</v>
+        <v>2043</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>73</v>
@@ -1958,10 +1999,10 @@
         <v>75</v>
       </c>
       <c r="M19" s="7">
-        <v>397</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>263968</v>
+        <v>5256</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>76</v>
@@ -1979,10 +2020,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D20" s="7">
-        <v>3213</v>
+        <v>140706</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>79</v>
@@ -1994,10 +2035,10 @@
         <v>81</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="I20" s="7">
-        <v>2043</v>
+        <v>123262</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>82</v>
@@ -2009,10 +2050,10 @@
         <v>84</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="N20" s="7">
-        <v>5256</v>
+        <v>263968</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>85</v>
@@ -2036,13 +2077,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2051,13 +2092,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2066,13 +2107,18 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2093,8 +2139,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63555A29-37B7-49EF-9A33-B25B99829464}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7BE3EA-4A19-4CDA-9D56-69FE58B9E16D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2110,7 +2156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2211,49 +2257,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7830</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>10482</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,49 +2308,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7830</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10482</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2365,13 @@
         <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -2334,13 +2380,13 @@
         <v>7830</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -2349,13 +2395,13 @@
         <v>10482</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,49 +2412,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>36695</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>33211</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>69906</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,49 +2463,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>36695</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>33211</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>69906</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2520,13 @@
         <v>36695</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2489,13 +2535,13 @@
         <v>33211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -2504,13 +2550,13 @@
         <v>69906</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,49 +2567,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>50963</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H10" s="7">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>50406</v>
+        <v>1331</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1331</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>148</v>
-      </c>
-      <c r="N10" s="7">
-        <v>101369</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,49 +2618,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>50963</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7">
-        <v>1331</v>
+        <v>50406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="N11" s="7">
-        <v>1331</v>
+        <v>101369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2675,13 @@
         <v>50963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
@@ -2644,13 +2690,13 @@
         <v>51737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>150</v>
@@ -2659,13 +2705,13 @@
         <v>102700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,49 +2722,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>50621</v>
+        <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>43429</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>94050</v>
+        <v>607</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,49 +2773,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7">
-        <v>607</v>
+        <v>50621</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>43429</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="N14" s="7">
-        <v>607</v>
+        <v>94050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2830,13 @@
         <v>51228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -2799,13 +2845,13 @@
         <v>43429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -2814,13 +2860,13 @@
         <v>94657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,49 +2877,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>47881</v>
+        <v>2060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1617</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7">
-        <v>66</v>
-      </c>
-      <c r="I16" s="7">
-        <v>49167</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>97048</v>
+        <v>3677</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,49 +2928,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7">
-        <v>2060</v>
+        <v>47881</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="7">
+        <v>66</v>
+      </c>
+      <c r="I17" s="7">
+        <v>49167</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1617</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="N17" s="7">
-        <v>3677</v>
+        <v>97048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2985,13 @@
         <v>49941</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -2954,13 +3000,13 @@
         <v>50784</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>135</v>
@@ -2969,13 +3015,13 @@
         <v>100725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,49 +3032,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>188811</v>
+        <v>2667</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>184045</v>
+        <v>2947</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
-        <v>532</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>372856</v>
+        <v>5614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,49 +3083,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="D20" s="7">
-        <v>2667</v>
+        <v>188811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="I20" s="7">
-        <v>2947</v>
+        <v>184045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>532</v>
       </c>
       <c r="N20" s="7">
-        <v>5614</v>
+        <v>372856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3140,13 @@
         <v>191478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -3109,13 +3155,13 @@
         <v>186992</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>540</v>
@@ -3124,13 +3170,18 @@
         <v>378470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3151,8 +3202,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F818D1-ECA3-4AB3-9502-E89F4A6BBD6A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261F2FA3-4EC6-4897-A588-404A227F7668}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3168,7 +3219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3269,49 +3320,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4512</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7682</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>12194</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,49 +3371,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4512</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7682</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>12194</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3428,13 @@
         <v>4512</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3392,13 +3443,13 @@
         <v>7682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3407,13 +3458,13 @@
         <v>12194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,49 +3475,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>24207</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>24382</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>48589</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,49 +3526,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>24207</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>24382</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>48589</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3583,13 @@
         <v>24207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -3547,13 +3598,13 @@
         <v>24382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -3562,13 +3613,13 @@
         <v>48589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,49 +3630,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>49761</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>52801</v>
+        <v>617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>617</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>159</v>
-      </c>
-      <c r="N10" s="7">
-        <v>102562</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,49 +3681,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>49761</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="I11" s="7">
-        <v>617</v>
+        <v>52801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="N11" s="7">
-        <v>617</v>
+        <v>102562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3738,13 @@
         <v>49761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -3702,13 +3753,13 @@
         <v>53418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
@@ -3717,13 +3768,13 @@
         <v>103179</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,49 +3785,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>31160</v>
+        <v>1214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>524</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>56</v>
-      </c>
-      <c r="I13" s="7">
-        <v>33424</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>64585</v>
+        <v>1738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,49 +3836,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>1214</v>
+        <v>31160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I14" s="7">
-        <v>524</v>
+        <v>33424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>1738</v>
+        <v>64585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3893,13 @@
         <v>32374</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
@@ -3857,13 +3908,13 @@
         <v>33948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>108</v>
@@ -3872,13 +3923,13 @@
         <v>66323</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,49 +3940,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>36624</v>
+        <v>646</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>43106</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>79730</v>
+        <v>646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,49 +3991,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>646</v>
+        <v>36624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>43106</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="N17" s="7">
-        <v>646</v>
+        <v>79730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +4048,13 @@
         <v>37270</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -4012,13 +4063,13 @@
         <v>43106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -4027,13 +4078,13 @@
         <v>80376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +4095,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>146266</v>
+        <v>1859</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>161395</v>
+        <v>1141</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
-        <v>455</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>307661</v>
+        <v>3000</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,49 +4146,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D20" s="7">
-        <v>1859</v>
+        <v>146266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="I20" s="7">
-        <v>1141</v>
+        <v>161395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>455</v>
       </c>
       <c r="N20" s="7">
-        <v>3000</v>
+        <v>307661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4203,13 @@
         <v>148125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>245</v>
@@ -4167,13 +4218,13 @@
         <v>162536</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>460</v>
@@ -4182,13 +4233,18 @@
         <v>310661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7C88B6-28E2-49DC-9952-9C3D47565F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8415D9F9-F8AE-4EEF-BEBE-CBF4085ADB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2AA4373-CAB0-43C3-AD1B-0452DB5C87E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C6CDFE6-C73F-4B2F-8A9B-0158FACC58D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="205">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,13 +106,13 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>11,93%</t>
+    <t>11,86%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -121,13 +121,13 @@
     <t>1,18%</t>
   </si>
   <si>
-    <t>6,89%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>88,07%</t>
+    <t>88,14%</t>
   </si>
   <si>
     <t>94,7%</t>
@@ -136,22 +136,22 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>7,22%</t>
+    <t>7,92%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>9,17%</t>
   </si>
   <si>
     <t>2,22%</t>
@@ -160,37 +160,37 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,9%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>92,78%</t>
+    <t>92,08%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>90,75%</t>
+    <t>90,83%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>94,66%</t>
+    <t>94,1%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>14,05%</t>
+    <t>12,2%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -199,13 +199,13 @@
     <t>2,27%</t>
   </si>
   <si>
-    <t>7,09%</t>
+    <t>7,0%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>85,95%</t>
+    <t>87,8%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -214,7 +214,7 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>92,91%</t>
+    <t>93,0%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -223,40 +223,40 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>10,0%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>90,0%</t>
+    <t>90,87%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>1,63%</t>
@@ -265,31 +265,31 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,54%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>95,46%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -298,10 +298,10 @@
     <t>98,05%</t>
   </si>
   <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -346,13 +346,13 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>7,78%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>3,98%</t>
   </si>
   <si>
     <t>97,38%</t>
@@ -361,16 +361,16 @@
     <t>97,43%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>92,22%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -379,10 +379,10 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>97,26%</t>
@@ -391,280 +391,268 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,4%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>11,09%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>9,82%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>88,91%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>90,4%</t>
+    <t>90,18%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F580E9-ADE5-4D0D-9B9C-7AE1EE66BEED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DF5FAD-C05A-48FD-B51E-8759C46E5279}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2139,7 +2127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7BE3EA-4A19-4CDA-9D56-69FE58B9E16D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9E6FD1-82DB-4F49-BD73-215AC9A26E71}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2886,10 +2874,10 @@
         <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2898,13 +2886,13 @@
         <v>1617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2913,13 +2901,13 @@
         <v>3677</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2922,13 @@
         <v>47881</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -2949,10 +2937,10 @@
         <v>49167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2964,13 +2952,13 @@
         <v>97048</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3026,13 @@
         <v>2667</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3053,13 +3041,13 @@
         <v>2947</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3068,13 +3056,13 @@
         <v>5614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3077,13 @@
         <v>188811</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -3104,13 +3092,13 @@
         <v>184045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>532</v>
@@ -3119,13 +3107,13 @@
         <v>372856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261F2FA3-4EC6-4897-A588-404A227F7668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A576FF-BEFE-475D-98A3-C1A78EB3ABED}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3219,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3332,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3347,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3362,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,7 +3368,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3395,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3410,7 +3398,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3487,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3517,7 +3505,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,7 +3523,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3565,7 +3553,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3642,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3651,13 +3639,13 @@
         <v>617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3666,13 +3654,13 @@
         <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3702,10 +3690,10 @@
         <v>52801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3717,10 +3705,10 @@
         <v>102562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3791,13 +3779,13 @@
         <v>1214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3806,13 +3794,13 @@
         <v>524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3824,10 +3812,10 @@
         <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,10 +3830,10 @@
         <v>31160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3857,10 +3845,10 @@
         <v>33424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3875,10 +3863,10 @@
         <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3934,13 @@
         <v>646</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3967,7 +3955,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3976,13 +3964,13 @@
         <v>646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,10 +3985,10 @@
         <v>36624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -4015,7 +4003,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4027,10 +4015,10 @@
         <v>79730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -4101,13 +4089,13 @@
         <v>1859</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4116,13 +4104,13 @@
         <v>1141</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4131,13 +4119,13 @@
         <v>3000</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4140,13 @@
         <v>146266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>243</v>
@@ -4167,10 +4155,10 @@
         <v>161395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -4182,13 +4170,13 @@
         <v>307661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8415D9F9-F8AE-4EEF-BEBE-CBF4085ADB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C736229-76A3-4888-8D6E-B2041B32AE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C6CDFE6-C73F-4B2F-8A9B-0158FACC58D4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{22A23819-B02A-4E3A-9779-B4BD032BC4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="190">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,565 +100,514 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>96,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>94,71%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,9%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>10,83%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>89,17%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2016 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DF5FAD-C05A-48FD-B51E-8759C46E5279}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6A60B6-1D81-4750-899A-0AA80FBABC7F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1197,82 +1152,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>9694</v>
+        <v>28121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="N5" s="7">
-        <v>14481</v>
+        <v>60939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1284,153 +1239,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>553</v>
+        <v>1252</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>553</v>
+        <v>1845</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40395</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>61</v>
+      </c>
+      <c r="I8" s="7">
+        <v>40713</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7">
-        <v>23334</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7">
-        <v>23124</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="N8" s="7">
-        <v>46458</v>
+        <v>81107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,153 +1394,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1252</v>
+        <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1845</v>
+        <v>1367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>40713</v>
+        <v>25164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>40395</v>
+        <v>33756</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="N11" s="7">
-        <v>81107</v>
+        <v>58919</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,153 +1549,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1367</v>
+        <v>791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1367</v>
+        <v>1491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>33756</v>
+        <v>24886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>55</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>42</v>
-      </c>
       <c r="I14" s="7">
-        <v>25164</v>
+        <v>38117</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>58919</v>
+        <v>63003</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,153 +1704,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>700</v>
+        <v>2043</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>791</v>
+        <v>3213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>1491</v>
+        <v>5256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D17" s="7">
-        <v>38117</v>
+        <v>123262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="I17" s="7">
-        <v>24886</v>
+        <v>140706</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
-        <v>88</v>
+        <v>397</v>
       </c>
       <c r="N17" s="7">
-        <v>63003</v>
+        <v>263968</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,217 +1859,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3213</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2043</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5256</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>210</v>
-      </c>
-      <c r="D20" s="7">
-        <v>140706</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="7">
-        <v>187</v>
-      </c>
-      <c r="I20" s="7">
-        <v>123262</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>397</v>
-      </c>
-      <c r="N20" s="7">
-        <v>263968</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2127,8 +1926,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9E6FD1-82DB-4F49-BD73-215AC9A26E71}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA939F8-D0E4-4B2F-ADE4-344DE58C9C78}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2144,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2257,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2272,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2287,58 +2086,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>41042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>54</v>
+      </c>
+      <c r="I5" s="7">
+        <v>39346</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7830</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>108</v>
+      </c>
+      <c r="N5" s="7">
+        <v>80388</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10482</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,72 +2146,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>41042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7">
-        <v>7830</v>
+        <v>39346</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>10482</v>
+        <v>80388</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2427,70 +2226,70 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
-        <v>36695</v>
+        <v>50406</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7">
-        <v>33211</v>
+        <v>50963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>148</v>
+      </c>
+      <c r="N8" s="7">
+        <v>101369</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="7">
-        <v>96</v>
-      </c>
-      <c r="N8" s="7">
-        <v>69906</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2502,54 +2301,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
-        <v>36695</v>
+        <v>51737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>33211</v>
+        <v>50963</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="N9" s="7">
-        <v>69906</v>
+        <v>102700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2567,88 +2366,88 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>607</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1331</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>607</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1331</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7">
-        <v>50963</v>
+        <v>43429</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>77</v>
+      </c>
+      <c r="I11" s="7">
+        <v>50621</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>76</v>
-      </c>
-      <c r="I11" s="7">
-        <v>50406</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>146</v>
+      </c>
+      <c r="N11" s="7">
+        <v>94050</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="7">
-        <v>148</v>
-      </c>
-      <c r="N11" s="7">
-        <v>101369</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,66 +2456,66 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7">
-        <v>50963</v>
+        <v>43429</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>51737</v>
+        <v>51228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>102700</v>
+        <v>94657</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>607</v>
+        <v>1617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -2725,85 +2524,85 @@
         <v>110</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>607</v>
+        <v>3677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>50621</v>
+        <v>49167</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>43429</v>
+        <v>47881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="N14" s="7">
-        <v>94050</v>
+        <v>97048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,153 +2611,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D15" s="7">
-        <v>51228</v>
+        <v>50784</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>43429</v>
+        <v>49941</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N15" s="7">
-        <v>94657</v>
+        <v>100725</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2060</v>
+        <v>2947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1617</v>
+        <v>2667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>3677</v>
+        <v>5614</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="D17" s="7">
-        <v>47881</v>
+        <v>184045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="I17" s="7">
-        <v>49167</v>
+        <v>188811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
-        <v>130</v>
+        <v>532</v>
       </c>
       <c r="N17" s="7">
-        <v>97048</v>
+        <v>372856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,217 +2766,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="D18" s="7">
-        <v>49941</v>
+        <v>186992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="I18" s="7">
-        <v>50784</v>
+        <v>191478</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="N18" s="7">
-        <v>100725</v>
+        <v>378470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2667</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2947</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5614</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>267</v>
-      </c>
-      <c r="D20" s="7">
-        <v>188811</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="7">
-        <v>265</v>
-      </c>
-      <c r="I20" s="7">
-        <v>184045</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M20" s="7">
-        <v>532</v>
-      </c>
-      <c r="N20" s="7">
-        <v>372856</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>271</v>
-      </c>
-      <c r="D21" s="7">
-        <v>191478</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>269</v>
-      </c>
-      <c r="I21" s="7">
-        <v>186992</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>540</v>
-      </c>
-      <c r="N21" s="7">
-        <v>378470</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3190,8 +2833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A576FF-BEFE-475D-98A3-C1A78EB3ABED}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90812C2F-2776-49EF-A2EE-15602C34B93E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3207,7 +2850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3320,7 +2963,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3335,7 +2978,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3350,58 +2993,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>4512</v>
+        <v>32064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7">
+        <v>28719</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7682</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>81</v>
+      </c>
+      <c r="N5" s="7">
+        <v>60783</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="7">
-        <v>13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12194</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,72 +3053,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>4512</v>
+        <v>32064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I6" s="7">
-        <v>7682</v>
+        <v>28719</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="N6" s="7">
-        <v>12194</v>
+        <v>60783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3490,70 +3133,70 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>24207</v>
+        <v>52801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I8" s="7">
-        <v>24382</v>
+        <v>49761</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="N8" s="7">
-        <v>48589</v>
+        <v>102562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3565,117 +3208,117 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>24207</v>
+        <v>53418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>24382</v>
+        <v>49761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="N9" s="7">
-        <v>48589</v>
+        <v>103179</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>617</v>
+        <v>1214</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1738</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>617</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>49761</v>
+        <v>33424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>163</v>
@@ -3684,10 +3327,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>52801</v>
+        <v>31160</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>164</v>
@@ -3696,22 +3339,22 @@
         <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="N11" s="7">
-        <v>102562</v>
+        <v>64585</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,69 +3363,69 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>49761</v>
+        <v>33948</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>53418</v>
+        <v>32374</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>103179</v>
+        <v>66323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1214</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>168</v>
@@ -3791,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>524</v>
+        <v>646</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>169</v>
@@ -3803,16 +3446,16 @@
         <v>170</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1738</v>
+        <v>646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>172</v>
@@ -3821,52 +3464,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>31160</v>
+        <v>43106</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>51</v>
+      </c>
+      <c r="I14" s="7">
+        <v>36624</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>56</v>
-      </c>
-      <c r="I14" s="7">
-        <v>33424</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>110</v>
+      </c>
+      <c r="N14" s="7">
+        <v>79730</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="7">
-        <v>105</v>
-      </c>
-      <c r="N14" s="7">
-        <v>64585</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,99 +3518,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>32374</v>
+        <v>43106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I15" s="7">
-        <v>33948</v>
+        <v>37270</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N15" s="7">
-        <v>66323</v>
+        <v>80376</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>646</v>
+        <v>1141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1859</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>646</v>
+        <v>3000</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>183</v>
@@ -3976,52 +3619,52 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="D17" s="7">
-        <v>36624</v>
+        <v>161395</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>212</v>
+      </c>
+      <c r="I17" s="7">
+        <v>146266</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>59</v>
-      </c>
-      <c r="I17" s="7">
-        <v>43106</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>110</v>
+        <v>455</v>
       </c>
       <c r="N17" s="7">
-        <v>79730</v>
+        <v>307661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,217 +3673,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="D18" s="7">
-        <v>37270</v>
+        <v>162536</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>43106</v>
+        <v>148125</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>111</v>
+        <v>460</v>
       </c>
       <c r="N18" s="7">
-        <v>80376</v>
+        <v>310661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1859</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1141</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3000</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>212</v>
-      </c>
-      <c r="D20" s="7">
-        <v>146266</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="7">
-        <v>243</v>
-      </c>
-      <c r="I20" s="7">
-        <v>161395</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>455</v>
-      </c>
-      <c r="N20" s="7">
-        <v>307661</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>148125</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>245</v>
-      </c>
-      <c r="I21" s="7">
-        <v>162536</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>460</v>
-      </c>
-      <c r="N21" s="7">
-        <v>310661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
